--- a/Unity/Assets/Config/Excel/Data/MapConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/MapConfig.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="29100" windowHeight="14540"/>
   </bookViews>
   <sheets>
-    <sheet name="ParticleProto" sheetId="1" r:id="rId1"/>
+    <sheet name="MapConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
